--- a/biology/Botanique/Scandix_peigne_de_Vénus/Scandix_peigne_de_Vénus.xlsx
+++ b/biology/Botanique/Scandix_peigne_de_Vénus/Scandix_peigne_de_Vénus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scandix_peigne_de_V%C3%A9nus</t>
+          <t>Scandix_peigne_de_Vénus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scandix pecten-veneris
 Le scandix peigne de Vénus (Scandix pecten-veneris) ou Cerfeuil à aiguillettes ou Aiguille de berger est une plante herbacée annuelle de la famille des Apiaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scandix_peigne_de_V%C3%A9nus</t>
+          <t>Scandix_peigne_de_Vénus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le plus souvent une plante adventice des terrains cultivés et des friches (autrefois très commune dans les moissons de toute la France, mais on la trouvait aussi dans les prairies[1]).
-Les fleurs en ombelles sont blanches. Les carpelies sont scabres, surmontés d'un bec ou sorte d'aiguillet au moins 4 fois plus longue que la graine, et hérissée de petits aiguillons disposés sur 2 rangs. L'involucre est absente ou représentée par une vraie feuille. Les involucelles sont à folioles entière, bifides ou laciniées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le plus souvent une plante adventice des terrains cultivés et des friches (autrefois très commune dans les moissons de toute la France, mais on la trouvait aussi dans les prairies).
+Les fleurs en ombelles sont blanches. Les carpelies sont scabres, surmontés d'un bec ou sorte d'aiguillet au moins 4 fois plus longue que la graine, et hérissée de petits aiguillons disposés sur 2 rangs. L'involucre est absente ou représentée par une vraie feuille. Les involucelles sont à folioles entière, bifides ou laciniées.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scandix_peigne_de_V%C3%A9nus</t>
+          <t>Scandix_peigne_de_Vénus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom provient de la forme de ses fruits ridés avec de très longs becs qui, regroupés en ombelles, évoquent un peigne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom provient de la forme de ses fruits ridés avec de très longs becs qui, regroupés en ombelles, évoquent un peigne.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scandix_peigne_de_V%C3%A9nus</t>
+          <t>Scandix_peigne_de_Vénus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette annuelle, haute de 20 à 40 cm, aux tiges dressées, rameuses et finement striées, peut être pubescente ou glabre[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette annuelle, haute de 20 à 40 cm, aux tiges dressées, rameuses et finement striées, peut être pubescente ou glabre.
 </t>
         </is>
       </c>
